--- a/database/industries/ghaza/gheshahdab/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/ghaza/gheshahdab/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB23D2E9-DAC3-41EC-92B8-430B23ED7620}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B59A97-2DF4-406B-83E5-4E8C315CCD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -619,7 +619,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
@@ -630,7 +630,7 @@
     <col min="11" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -644,7 +644,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -660,7 +660,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -676,7 +676,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -690,7 +690,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -722,7 +722,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -736,7 +736,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -772,7 +772,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -808,7 +808,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -822,7 +822,7 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>26</v>
       </c>
@@ -858,7 +858,7 @@
         <v>6340512</v>
       </c>
     </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
@@ -894,7 +894,7 @@
         <v>-5391930</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
@@ -930,7 +930,7 @@
         <v>948582</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
@@ -966,7 +966,7 @@
         <v>-219433</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>24699</v>
       </c>
     </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
@@ -1074,7 +1074,7 @@
         <v>753848</v>
       </c>
     </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>-105322</v>
       </c>
     </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>53193</v>
       </c>
     </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>701719</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
@@ -1218,7 +1218,7 @@
         <v>-148624</v>
       </c>
     </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>553095</v>
       </c>
     </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>553095</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
@@ -1362,7 +1362,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>6103562</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
@@ -1434,7 +1434,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>

--- a/database/industries/ghaza/gheshahdab/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/ghaza/gheshahdab/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshahdab\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\gheshahdab\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B59A97-2DF4-406B-83E5-4E8C315CCD92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA41F37-8257-422F-AB8D-7EA5933C47F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
